--- a/アカウント一覧_結合テスト.xlsx
+++ b/アカウント一覧_結合テスト.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/264754842b9ba5ef/デスクトップ/kadai/ketugou-test/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/264754842b9ba5ef/デスクトップ/kadai/integration-test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="12" documentId="13_ncr:1_{0E02FCD3-8EAC-4D10-9ADF-4E91556B64B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E2BEC314-894B-4610-A809-F69F08447637}"/>
+  <xr:revisionPtr revIDLastSave="28" documentId="13_ncr:1_{0E02FCD3-8EAC-4D10-9ADF-4E91556B64B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6793F63E-8F63-4B13-B974-3721344914D9}"/>
   <bookViews>
-    <workbookView xWindow="3540" yWindow="3730" windowWidth="16920" windowHeight="10340" xr2:uid="{B462155A-29E6-4E7A-8661-60DC22FDF8EA}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{B462155A-29E6-4E7A-8661-60DC22FDF8EA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="128">
   <si>
     <t>項目番号</t>
     <rPh sb="0" eb="2">
@@ -1779,6 +1779,16 @@
     </rPh>
     <rPh sb="29" eb="31">
       <t>チョクウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.ホスト名を変更する</t>
+    <rPh sb="5" eb="6">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヘンコウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2684,8 +2694,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BB39F5B-1FA5-42C8-949E-8DCEC752D35D}">
   <dimension ref="A1:I38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E20" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
-      <selection activeCell="G34" sqref="G34"/>
+    <sheetView tabSelected="1" topLeftCell="C7" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -2736,7 +2746,7 @@
         <v>27</v>
       </c>
       <c r="C4" s="3">
-        <v>46001</v>
+        <v>46020</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -2791,7 +2801,7 @@
         <v>83</v>
       </c>
       <c r="G8" s="4">
-        <v>46002</v>
+        <v>45662</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>73</v>
@@ -2829,7 +2839,7 @@
         <v>101</v>
       </c>
       <c r="G10" s="4">
-        <v>46002</v>
+        <v>45662</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>73</v>
@@ -2880,7 +2890,7 @@
         <v>103</v>
       </c>
       <c r="G13" s="4">
-        <v>46002</v>
+        <v>45662</v>
       </c>
       <c r="H13" s="2" t="s">
         <v>73</v>
@@ -2918,7 +2928,7 @@
         <v>104</v>
       </c>
       <c r="G15" s="4">
-        <v>46002</v>
+        <v>45662</v>
       </c>
       <c r="H15" s="2" t="s">
         <v>73</v>
@@ -2956,7 +2966,7 @@
         <v>107</v>
       </c>
       <c r="G17" s="4">
-        <v>46002</v>
+        <v>45662</v>
       </c>
       <c r="H17" s="2" t="s">
         <v>73</v>
@@ -2994,7 +3004,7 @@
         <v>109</v>
       </c>
       <c r="G19" s="4">
-        <v>46002</v>
+        <v>45662</v>
       </c>
       <c r="H19" s="2" t="s">
         <v>73</v>
@@ -3045,7 +3055,7 @@
         <v>113</v>
       </c>
       <c r="G22" s="4">
-        <v>46002</v>
+        <v>45662</v>
       </c>
       <c r="H22" s="2" t="s">
         <v>73</v>
@@ -3083,7 +3093,7 @@
         <v>114</v>
       </c>
       <c r="G24" s="4">
-        <v>46002</v>
+        <v>45662</v>
       </c>
       <c r="H24" s="2" t="s">
         <v>73</v>
@@ -3121,7 +3131,7 @@
         <v>115</v>
       </c>
       <c r="G26" s="4">
-        <v>46002</v>
+        <v>45662</v>
       </c>
       <c r="H26" s="2" t="s">
         <v>73</v>
@@ -3159,7 +3169,7 @@
         <v>115</v>
       </c>
       <c r="G28" s="4">
-        <v>46002</v>
+        <v>45662</v>
       </c>
       <c r="H28" s="2" t="s">
         <v>73</v>
@@ -3197,7 +3207,7 @@
         <v>85</v>
       </c>
       <c r="G30" s="4">
-        <v>46002</v>
+        <v>45662</v>
       </c>
       <c r="H30" s="2" t="s">
         <v>73</v>
@@ -3233,7 +3243,7 @@
         <v>122</v>
       </c>
       <c r="G32" s="4">
-        <v>46002</v>
+        <v>45662</v>
       </c>
       <c r="H32" s="2" t="s">
         <v>73</v>
@@ -3263,13 +3273,13 @@
         <v>98</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>29</v>
+        <v>127</v>
       </c>
       <c r="F34" s="7" t="s">
         <v>87</v>
       </c>
       <c r="G34" s="4">
-        <v>46007</v>
+        <v>45662</v>
       </c>
       <c r="H34" s="2" t="s">
         <v>73</v>
@@ -3322,7 +3332,7 @@
         <v>125</v>
       </c>
       <c r="G37" s="4">
-        <v>46002</v>
+        <v>45662</v>
       </c>
       <c r="H37" s="2" t="s">
         <v>73</v>
